--- a/산출물/B301_테스트케이스.xlsx
+++ b/산출물/B301_테스트케이스.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="299">
   <si>
     <t>테스트 케이스 (FINAL)</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1245,6 +1245,14 @@
   </si>
   <si>
     <t>일부 CSS 오류 발생</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 오류 점검 및 CSS 점검</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인 완료</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1555,39 +1563,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1608,6 +1583,39 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1894,8 +1902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J155"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D154" sqref="D154"/>
+    <sheetView tabSelected="1" topLeftCell="B56" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68:J69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1908,53 +1916,53 @@
     <col min="7" max="7" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="30" customFormat="1" ht="27.6">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:10" s="37" customFormat="1" ht="27.6">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="31" customFormat="1" ht="18" thickBot="1">
-      <c r="A3" s="31" t="s">
+    <row r="3" spans="1:10" s="38" customFormat="1" ht="18" thickBot="1">
+      <c r="A3" s="38" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="18" thickBot="1"/>
     <row r="5" spans="1:10">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="30"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="23"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="33"/>
     </row>
     <row r="7" spans="1:10" ht="69.599999999999994" customHeight="1" thickBot="1">
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="26"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="36"/>
     </row>
     <row r="9" spans="1:10" ht="17.399999999999999" customHeight="1">
       <c r="B9" s="3" t="s">
@@ -1977,7 +1985,7 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="22" t="s">
         <v>196</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -1997,7 +2005,7 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="22" t="s">
         <v>197</v>
       </c>
       <c r="C11" s="11" t="s">
@@ -2017,7 +2025,7 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="22" t="s">
         <v>202</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -2033,7 +2041,7 @@
       <c r="G12" s="13"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="22" t="s">
         <v>203</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -2056,41 +2064,41 @@
       <c r="B14" s="5"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="30"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="23"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="33"/>
     </row>
     <row r="17" spans="2:10" ht="88.2" customHeight="1" thickBot="1">
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="26"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="36"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="9"/>
@@ -2124,7 +2132,7 @@
       </c>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="33">
+      <c r="B20" s="22">
         <v>1</v>
       </c>
       <c r="C20" s="11" t="s">
@@ -2144,7 +2152,7 @@
       </c>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="33">
+      <c r="B21" s="22">
         <v>2</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -2164,7 +2172,7 @@
       </c>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="33">
+      <c r="B22" s="22">
         <v>3</v>
       </c>
       <c r="C22" s="11" t="s">
@@ -2184,7 +2192,7 @@
       </c>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="33">
+      <c r="B23" s="22">
         <v>4</v>
       </c>
       <c r="C23" s="11" t="s">
@@ -2205,41 +2213,41 @@
     </row>
     <row r="24" spans="2:10" ht="18" thickBot="1"/>
     <row r="25" spans="2:10">
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="30"/>
     </row>
     <row r="26" spans="2:10" ht="17.399999999999999" customHeight="1">
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="23"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="33"/>
     </row>
     <row r="27" spans="2:10" ht="126" customHeight="1" thickBot="1">
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="26"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="36"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="5"/>
@@ -2372,41 +2380,41 @@
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="2:10">
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="30"/>
     </row>
     <row r="37" spans="2:10">
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="23"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="33"/>
     </row>
     <row r="38" spans="2:10" ht="52.8" customHeight="1" thickBot="1">
-      <c r="B38" s="24"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="26"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="36"/>
     </row>
     <row r="40" spans="2:10">
       <c r="B40" s="3" t="s">
@@ -2493,41 +2501,41 @@
       <c r="D44" s="6"/>
     </row>
     <row r="45" spans="2:10">
-      <c r="B45" s="27" t="s">
+      <c r="B45" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="30"/>
     </row>
     <row r="46" spans="2:10" ht="17.399999999999999" customHeight="1">
-      <c r="B46" s="21" t="s">
+      <c r="B46" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="23"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="33"/>
     </row>
     <row r="47" spans="2:10" ht="53.4" customHeight="1" thickBot="1">
-      <c r="B47" s="24"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="26"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="36"/>
     </row>
     <row r="48" spans="2:10">
       <c r="C48"/>
@@ -2618,41 +2626,41 @@
     </row>
     <row r="53" spans="2:10" ht="18" thickBot="1"/>
     <row r="54" spans="2:10">
-      <c r="B54" s="27" t="s">
+      <c r="B54" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="30"/>
     </row>
     <row r="55" spans="2:10">
-      <c r="B55" s="21" t="s">
+      <c r="B55" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
-      <c r="J55" s="23"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="33"/>
     </row>
     <row r="56" spans="2:10" ht="142.80000000000001" customHeight="1" thickBot="1">
-      <c r="B56" s="24"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="25"/>
-      <c r="I56" s="25"/>
-      <c r="J56" s="26"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="36"/>
     </row>
     <row r="57" spans="2:10">
       <c r="C57"/>
@@ -2826,41 +2834,41 @@
       <c r="D66" s="4"/>
     </row>
     <row r="67" spans="1:10">
-      <c r="B67" s="27" t="s">
+      <c r="B67" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
-      <c r="J67" s="29"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="30"/>
     </row>
     <row r="68" spans="1:10">
-      <c r="B68" s="21" t="s">
+      <c r="B68" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="22"/>
-      <c r="J68" s="23"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="32"/>
+      <c r="J68" s="33"/>
     </row>
     <row r="69" spans="1:10" ht="52.8" customHeight="1" thickBot="1">
-      <c r="B69" s="24"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="26"/>
+      <c r="B69" s="34"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="35"/>
+      <c r="I69" s="35"/>
+      <c r="J69" s="36"/>
     </row>
     <row r="70" spans="1:10">
       <c r="B70" s="5"/>
@@ -2887,7 +2895,7 @@
       </c>
     </row>
     <row r="72" spans="1:10">
-      <c r="B72" s="33">
+      <c r="B72" s="22">
         <v>1</v>
       </c>
       <c r="C72" s="11" t="s">
@@ -2907,7 +2915,7 @@
       </c>
     </row>
     <row r="73" spans="1:10">
-      <c r="B73" s="33">
+      <c r="B73" s="22">
         <v>2</v>
       </c>
       <c r="C73" s="11" t="s">
@@ -2927,7 +2935,7 @@
       </c>
     </row>
     <row r="74" spans="1:10">
-      <c r="B74" s="33" t="s">
+      <c r="B74" s="22" t="s">
         <v>207</v>
       </c>
       <c r="C74" s="11" t="s">
@@ -2947,7 +2955,7 @@
       </c>
     </row>
     <row r="75" spans="1:10">
-      <c r="B75" s="33" t="s">
+      <c r="B75" s="22" t="s">
         <v>208</v>
       </c>
       <c r="C75" s="11" t="s">
@@ -2974,48 +2982,48 @@
       <c r="F76"/>
       <c r="G76"/>
     </row>
-    <row r="77" spans="1:10" s="31" customFormat="1" ht="18" thickBot="1">
-      <c r="A77" s="31" t="s">
+    <row r="77" spans="1:10" s="38" customFormat="1" ht="18" thickBot="1">
+      <c r="A77" s="38" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="18" thickBot="1"/>
     <row r="79" spans="1:10">
-      <c r="B79" s="27" t="s">
+      <c r="B79" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C79" s="28"/>
-      <c r="D79" s="28"/>
-      <c r="E79" s="28"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="28"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="28"/>
-      <c r="J79" s="29"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="29"/>
+      <c r="I79" s="29"/>
+      <c r="J79" s="30"/>
     </row>
     <row r="80" spans="1:10" ht="17.399999999999999" customHeight="1">
-      <c r="B80" s="21" t="s">
+      <c r="B80" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="C80" s="22"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="22"/>
-      <c r="H80" s="22"/>
-      <c r="I80" s="22"/>
-      <c r="J80" s="23"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="32"/>
+      <c r="E80" s="32"/>
+      <c r="F80" s="32"/>
+      <c r="G80" s="32"/>
+      <c r="H80" s="32"/>
+      <c r="I80" s="32"/>
+      <c r="J80" s="33"/>
     </row>
     <row r="81" spans="2:10" ht="18" thickBot="1">
-      <c r="B81" s="24"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="25"/>
-      <c r="H81" s="25"/>
-      <c r="I81" s="25"/>
-      <c r="J81" s="26"/>
+      <c r="B81" s="34"/>
+      <c r="C81" s="35"/>
+      <c r="D81" s="35"/>
+      <c r="E81" s="35"/>
+      <c r="F81" s="35"/>
+      <c r="G81" s="35"/>
+      <c r="H81" s="35"/>
+      <c r="I81" s="35"/>
+      <c r="J81" s="36"/>
     </row>
     <row r="83" spans="2:10">
       <c r="B83" s="3" t="s">
@@ -3121,41 +3129,41 @@
       <c r="B88" s="8"/>
     </row>
     <row r="89" spans="2:10" ht="17.399999999999999" customHeight="1">
-      <c r="B89" s="27" t="s">
+      <c r="B89" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C89" s="28"/>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="28"/>
-      <c r="I89" s="28"/>
-      <c r="J89" s="29"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="29"/>
+      <c r="G89" s="29"/>
+      <c r="H89" s="29"/>
+      <c r="I89" s="29"/>
+      <c r="J89" s="30"/>
     </row>
     <row r="90" spans="2:10">
-      <c r="B90" s="21" t="s">
+      <c r="B90" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="C90" s="22"/>
-      <c r="D90" s="22"/>
-      <c r="E90" s="22"/>
-      <c r="F90" s="22"/>
-      <c r="G90" s="22"/>
-      <c r="H90" s="22"/>
-      <c r="I90" s="22"/>
-      <c r="J90" s="23"/>
+      <c r="C90" s="32"/>
+      <c r="D90" s="32"/>
+      <c r="E90" s="32"/>
+      <c r="F90" s="32"/>
+      <c r="G90" s="32"/>
+      <c r="H90" s="32"/>
+      <c r="I90" s="32"/>
+      <c r="J90" s="33"/>
     </row>
     <row r="91" spans="2:10" ht="18" thickBot="1">
-      <c r="B91" s="24"/>
-      <c r="C91" s="25"/>
-      <c r="D91" s="25"/>
-      <c r="E91" s="25"/>
-      <c r="F91" s="25"/>
-      <c r="G91" s="25"/>
-      <c r="H91" s="25"/>
-      <c r="I91" s="25"/>
-      <c r="J91" s="26"/>
+      <c r="B91" s="34"/>
+      <c r="C91" s="35"/>
+      <c r="D91" s="35"/>
+      <c r="E91" s="35"/>
+      <c r="F91" s="35"/>
+      <c r="G91" s="35"/>
+      <c r="H91" s="35"/>
+      <c r="I91" s="35"/>
+      <c r="J91" s="36"/>
     </row>
     <row r="93" spans="2:10">
       <c r="B93" s="3" t="s">
@@ -3178,7 +3186,7 @@
       </c>
     </row>
     <row r="94" spans="2:10">
-      <c r="B94" s="33">
+      <c r="B94" s="22">
         <v>1</v>
       </c>
       <c r="C94" s="11" t="s">
@@ -3198,7 +3206,7 @@
       </c>
     </row>
     <row r="95" spans="2:10">
-      <c r="B95" s="33" t="s">
+      <c r="B95" s="22" t="s">
         <v>202</v>
       </c>
       <c r="C95" s="11" t="s">
@@ -3218,7 +3226,7 @@
       </c>
     </row>
     <row r="96" spans="2:10">
-      <c r="B96" s="33" t="s">
+      <c r="B96" s="22" t="s">
         <v>203</v>
       </c>
       <c r="C96" s="11" t="s">
@@ -3238,49 +3246,49 @@
       </c>
     </row>
     <row r="97" spans="2:10" ht="18" thickBot="1">
-      <c r="B97" s="34"/>
-      <c r="C97" s="35"/>
-      <c r="D97" s="35"/>
-      <c r="E97" s="35"/>
-      <c r="F97" s="36"/>
-      <c r="G97" s="36"/>
+      <c r="B97" s="23"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
     </row>
     <row r="98" spans="2:10" ht="17.399999999999999" customHeight="1">
-      <c r="B98" s="27" t="s">
+      <c r="B98" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C98" s="28"/>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="28"/>
-      <c r="J98" s="29"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="29"/>
+      <c r="E98" s="29"/>
+      <c r="F98" s="29"/>
+      <c r="G98" s="29"/>
+      <c r="H98" s="29"/>
+      <c r="I98" s="29"/>
+      <c r="J98" s="30"/>
     </row>
     <row r="99" spans="2:10">
-      <c r="B99" s="21" t="s">
+      <c r="B99" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="C99" s="22"/>
-      <c r="D99" s="22"/>
-      <c r="E99" s="22"/>
-      <c r="F99" s="22"/>
-      <c r="G99" s="22"/>
-      <c r="H99" s="22"/>
-      <c r="I99" s="22"/>
-      <c r="J99" s="23"/>
+      <c r="C99" s="32"/>
+      <c r="D99" s="32"/>
+      <c r="E99" s="32"/>
+      <c r="F99" s="32"/>
+      <c r="G99" s="32"/>
+      <c r="H99" s="32"/>
+      <c r="I99" s="32"/>
+      <c r="J99" s="33"/>
     </row>
     <row r="100" spans="2:10" ht="18" thickBot="1">
-      <c r="B100" s="24"/>
-      <c r="C100" s="25"/>
-      <c r="D100" s="25"/>
-      <c r="E100" s="25"/>
-      <c r="F100" s="25"/>
-      <c r="G100" s="25"/>
-      <c r="H100" s="25"/>
-      <c r="I100" s="25"/>
-      <c r="J100" s="26"/>
+      <c r="B100" s="34"/>
+      <c r="C100" s="35"/>
+      <c r="D100" s="35"/>
+      <c r="E100" s="35"/>
+      <c r="F100" s="35"/>
+      <c r="G100" s="35"/>
+      <c r="H100" s="35"/>
+      <c r="I100" s="35"/>
+      <c r="J100" s="36"/>
     </row>
     <row r="102" spans="2:10">
       <c r="B102" s="3" t="s">
@@ -3303,7 +3311,7 @@
       </c>
     </row>
     <row r="103" spans="2:10">
-      <c r="B103" s="33">
+      <c r="B103" s="22">
         <v>1</v>
       </c>
       <c r="C103" s="11" t="s">
@@ -3323,7 +3331,7 @@
       </c>
     </row>
     <row r="104" spans="2:10">
-      <c r="B104" s="33" t="s">
+      <c r="B104" s="22" t="s">
         <v>202</v>
       </c>
       <c r="C104" s="11" t="s">
@@ -3343,7 +3351,7 @@
       </c>
     </row>
     <row r="105" spans="2:10">
-      <c r="B105" s="33" t="s">
+      <c r="B105" s="22" t="s">
         <v>203</v>
       </c>
       <c r="C105" s="11" t="s">
@@ -3363,7 +3371,7 @@
       </c>
     </row>
     <row r="106" spans="2:10">
-      <c r="B106" s="33" t="s">
+      <c r="B106" s="22" t="s">
         <v>217</v>
       </c>
       <c r="C106" s="11" t="s">
@@ -3383,7 +3391,7 @@
       </c>
     </row>
     <row r="107" spans="2:10">
-      <c r="B107" s="38"/>
+      <c r="B107" s="27"/>
       <c r="C107" s="17"/>
       <c r="D107" s="17"/>
       <c r="E107" s="17"/>
@@ -3399,41 +3407,41 @@
       <c r="G108" s="18"/>
     </row>
     <row r="109" spans="2:10">
-      <c r="B109" s="27" t="s">
+      <c r="B109" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C109" s="28"/>
-      <c r="D109" s="28"/>
-      <c r="E109" s="28"/>
-      <c r="F109" s="28"/>
-      <c r="G109" s="28"/>
-      <c r="H109" s="28"/>
-      <c r="I109" s="28"/>
-      <c r="J109" s="29"/>
+      <c r="C109" s="29"/>
+      <c r="D109" s="29"/>
+      <c r="E109" s="29"/>
+      <c r="F109" s="29"/>
+      <c r="G109" s="29"/>
+      <c r="H109" s="29"/>
+      <c r="I109" s="29"/>
+      <c r="J109" s="30"/>
     </row>
     <row r="110" spans="2:10">
-      <c r="B110" s="21" t="s">
+      <c r="B110" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="C110" s="22"/>
-      <c r="D110" s="22"/>
-      <c r="E110" s="22"/>
-      <c r="F110" s="22"/>
-      <c r="G110" s="22"/>
-      <c r="H110" s="22"/>
-      <c r="I110" s="22"/>
-      <c r="J110" s="23"/>
+      <c r="C110" s="32"/>
+      <c r="D110" s="32"/>
+      <c r="E110" s="32"/>
+      <c r="F110" s="32"/>
+      <c r="G110" s="32"/>
+      <c r="H110" s="32"/>
+      <c r="I110" s="32"/>
+      <c r="J110" s="33"/>
     </row>
     <row r="111" spans="2:10" ht="18" thickBot="1">
-      <c r="B111" s="24"/>
-      <c r="C111" s="25"/>
-      <c r="D111" s="25"/>
-      <c r="E111" s="25"/>
-      <c r="F111" s="25"/>
-      <c r="G111" s="25"/>
-      <c r="H111" s="25"/>
-      <c r="I111" s="25"/>
-      <c r="J111" s="26"/>
+      <c r="B111" s="34"/>
+      <c r="C111" s="35"/>
+      <c r="D111" s="35"/>
+      <c r="E111" s="35"/>
+      <c r="F111" s="35"/>
+      <c r="G111" s="35"/>
+      <c r="H111" s="35"/>
+      <c r="I111" s="35"/>
+      <c r="J111" s="36"/>
     </row>
     <row r="112" spans="2:10">
       <c r="B112" s="9"/>
@@ -3470,7 +3478,7 @@
       <c r="J113" s="9"/>
     </row>
     <row r="114" spans="2:10">
-      <c r="B114" s="33">
+      <c r="B114" s="22">
         <v>1</v>
       </c>
       <c r="C114" s="11" t="s">
@@ -3493,7 +3501,7 @@
       <c r="J114" s="9"/>
     </row>
     <row r="115" spans="2:10">
-      <c r="B115" s="33">
+      <c r="B115" s="22">
         <v>2</v>
       </c>
       <c r="C115" s="11" t="s">
@@ -3516,7 +3524,7 @@
       <c r="J115" s="9"/>
     </row>
     <row r="116" spans="2:10">
-      <c r="B116" s="33">
+      <c r="B116" s="22">
         <v>3</v>
       </c>
       <c r="C116" s="11" t="s">
@@ -3539,7 +3547,7 @@
       <c r="J116" s="9"/>
     </row>
     <row r="117" spans="2:10">
-      <c r="B117" s="33" t="s">
+      <c r="B117" s="22" t="s">
         <v>225</v>
       </c>
       <c r="C117" s="11" t="s">
@@ -3562,7 +3570,7 @@
       <c r="J117" s="9"/>
     </row>
     <row r="118" spans="2:10">
-      <c r="B118" s="33" t="s">
+      <c r="B118" s="22" t="s">
         <v>226</v>
       </c>
       <c r="C118" s="11" t="s">
@@ -3585,7 +3593,7 @@
       <c r="J118" s="9"/>
     </row>
     <row r="119" spans="2:10">
-      <c r="B119" s="33">
+      <c r="B119" s="22">
         <v>5</v>
       </c>
       <c r="C119" s="11" t="s">
@@ -3608,7 +3616,7 @@
       <c r="J119" s="9"/>
     </row>
     <row r="120" spans="2:10">
-      <c r="B120" s="33">
+      <c r="B120" s="22">
         <v>6</v>
       </c>
       <c r="C120" s="11" t="s">
@@ -3631,7 +3639,7 @@
       <c r="J120" s="9"/>
     </row>
     <row r="121" spans="2:10">
-      <c r="B121" s="33">
+      <c r="B121" s="22">
         <v>7</v>
       </c>
       <c r="C121" s="11" t="s">
@@ -3654,7 +3662,7 @@
       <c r="J121" s="9"/>
     </row>
     <row r="122" spans="2:10">
-      <c r="B122" s="33">
+      <c r="B122" s="22">
         <v>8</v>
       </c>
       <c r="C122" s="11" t="s">
@@ -3677,7 +3685,7 @@
       <c r="J122" s="9"/>
     </row>
     <row r="123" spans="2:10">
-      <c r="B123" s="33" t="s">
+      <c r="B123" s="22" t="s">
         <v>248</v>
       </c>
       <c r="C123" s="12" t="s">
@@ -3700,7 +3708,7 @@
       <c r="J123" s="9"/>
     </row>
     <row r="124" spans="2:10">
-      <c r="B124" s="33" t="s">
+      <c r="B124" s="22" t="s">
         <v>249</v>
       </c>
       <c r="C124" s="12" t="s">
@@ -3723,7 +3731,7 @@
       <c r="J124" s="9"/>
     </row>
     <row r="125" spans="2:10">
-      <c r="B125" s="33" t="s">
+      <c r="B125" s="22" t="s">
         <v>250</v>
       </c>
       <c r="C125" s="12" t="s">
@@ -3742,7 +3750,7 @@
       <c r="J125" s="9"/>
     </row>
     <row r="126" spans="2:10">
-      <c r="B126" s="33" t="s">
+      <c r="B126" s="22" t="s">
         <v>251</v>
       </c>
       <c r="C126" s="12" t="s">
@@ -3765,7 +3773,7 @@
       <c r="J126" s="9"/>
     </row>
     <row r="127" spans="2:10">
-      <c r="B127" s="33" t="s">
+      <c r="B127" s="22" t="s">
         <v>241</v>
       </c>
       <c r="C127" s="12" t="s">
@@ -3784,7 +3792,7 @@
       <c r="J127" s="9"/>
     </row>
     <row r="128" spans="2:10">
-      <c r="B128" s="33" t="s">
+      <c r="B128" s="22" t="s">
         <v>242</v>
       </c>
       <c r="C128" s="12" t="s">
@@ -3807,7 +3815,7 @@
       <c r="J128" s="9"/>
     </row>
     <row r="129" spans="2:10">
-      <c r="B129" s="33" t="s">
+      <c r="B129" s="22" t="s">
         <v>252</v>
       </c>
       <c r="C129" s="12" t="s">
@@ -3830,7 +3838,7 @@
       <c r="J129" s="9"/>
     </row>
     <row r="130" spans="2:10">
-      <c r="B130" s="33" t="s">
+      <c r="B130" s="22" t="s">
         <v>253</v>
       </c>
       <c r="C130" s="12" t="s">
@@ -3849,7 +3857,7 @@
       <c r="J130" s="9"/>
     </row>
     <row r="131" spans="2:10">
-      <c r="B131" s="33" t="s">
+      <c r="B131" s="22" t="s">
         <v>254</v>
       </c>
       <c r="C131" s="12" t="s">
@@ -3872,7 +3880,7 @@
       <c r="J131" s="9"/>
     </row>
     <row r="132" spans="2:10">
-      <c r="B132" s="33" t="s">
+      <c r="B132" s="22" t="s">
         <v>255</v>
       </c>
       <c r="C132" s="11" t="s">
@@ -3895,7 +3903,7 @@
       <c r="J132" s="9"/>
     </row>
     <row r="133" spans="2:10">
-      <c r="B133" s="33" t="s">
+      <c r="B133" s="22" t="s">
         <v>256</v>
       </c>
       <c r="C133" s="11" t="s">
@@ -3914,7 +3922,7 @@
       <c r="J133" s="9"/>
     </row>
     <row r="134" spans="2:10">
-      <c r="B134" s="33" t="s">
+      <c r="B134" s="22" t="s">
         <v>257</v>
       </c>
       <c r="C134" s="11" t="s">
@@ -3948,41 +3956,41 @@
       <c r="J135" s="9"/>
     </row>
     <row r="136" spans="2:10">
-      <c r="B136" s="27" t="s">
+      <c r="B136" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C136" s="28"/>
-      <c r="D136" s="28"/>
-      <c r="E136" s="28"/>
-      <c r="F136" s="28"/>
-      <c r="G136" s="28"/>
-      <c r="H136" s="28"/>
-      <c r="I136" s="28"/>
-      <c r="J136" s="29"/>
+      <c r="C136" s="29"/>
+      <c r="D136" s="29"/>
+      <c r="E136" s="29"/>
+      <c r="F136" s="29"/>
+      <c r="G136" s="29"/>
+      <c r="H136" s="29"/>
+      <c r="I136" s="29"/>
+      <c r="J136" s="30"/>
     </row>
     <row r="137" spans="2:10">
-      <c r="B137" s="21" t="s">
+      <c r="B137" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="C137" s="22"/>
-      <c r="D137" s="22"/>
-      <c r="E137" s="22"/>
-      <c r="F137" s="22"/>
-      <c r="G137" s="22"/>
-      <c r="H137" s="22"/>
-      <c r="I137" s="22"/>
-      <c r="J137" s="23"/>
+      <c r="C137" s="32"/>
+      <c r="D137" s="32"/>
+      <c r="E137" s="32"/>
+      <c r="F137" s="32"/>
+      <c r="G137" s="32"/>
+      <c r="H137" s="32"/>
+      <c r="I137" s="32"/>
+      <c r="J137" s="33"/>
     </row>
     <row r="138" spans="2:10" ht="18" thickBot="1">
-      <c r="B138" s="24"/>
-      <c r="C138" s="25"/>
-      <c r="D138" s="25"/>
-      <c r="E138" s="25"/>
-      <c r="F138" s="25"/>
-      <c r="G138" s="25"/>
-      <c r="H138" s="25"/>
-      <c r="I138" s="25"/>
-      <c r="J138" s="26"/>
+      <c r="B138" s="34"/>
+      <c r="C138" s="35"/>
+      <c r="D138" s="35"/>
+      <c r="E138" s="35"/>
+      <c r="F138" s="35"/>
+      <c r="G138" s="35"/>
+      <c r="H138" s="35"/>
+      <c r="I138" s="35"/>
+      <c r="J138" s="36"/>
     </row>
     <row r="140" spans="2:10">
       <c r="B140" s="3" t="s">
@@ -4005,7 +4013,7 @@
       </c>
     </row>
     <row r="141" spans="2:10">
-      <c r="B141" s="33">
+      <c r="B141" s="22">
         <v>1</v>
       </c>
       <c r="C141" s="11" t="s">
@@ -4025,7 +4033,7 @@
       </c>
     </row>
     <row r="142" spans="2:10">
-      <c r="B142" s="33">
+      <c r="B142" s="22">
         <v>2</v>
       </c>
       <c r="C142" s="11" t="s">
@@ -4045,7 +4053,7 @@
       </c>
     </row>
     <row r="143" spans="2:10">
-      <c r="B143" s="33" t="s">
+      <c r="B143" s="22" t="s">
         <v>207</v>
       </c>
       <c r="C143" s="11" t="s">
@@ -4061,7 +4069,7 @@
       <c r="G143" s="13"/>
     </row>
     <row r="144" spans="2:10">
-      <c r="B144" s="33" t="s">
+      <c r="B144" s="22" t="s">
         <v>208</v>
       </c>
       <c r="C144" s="11" t="s">
@@ -4081,7 +4089,7 @@
       </c>
     </row>
     <row r="145" spans="2:10">
-      <c r="B145" s="37">
+      <c r="B145" s="26">
         <v>4</v>
       </c>
       <c r="C145" s="11" t="s">
@@ -4101,7 +4109,7 @@
       </c>
     </row>
     <row r="146" spans="2:10">
-      <c r="B146" s="37">
+      <c r="B146" s="26">
         <v>5</v>
       </c>
       <c r="C146" s="11" t="s">
@@ -4121,7 +4129,7 @@
       </c>
     </row>
     <row r="147" spans="2:10">
-      <c r="B147" s="37">
+      <c r="B147" s="26">
         <v>6</v>
       </c>
       <c r="C147" s="11" t="s">
@@ -4144,41 +4152,41 @@
       <c r="B148" s="8"/>
     </row>
     <row r="149" spans="2:10">
-      <c r="B149" s="27" t="s">
+      <c r="B149" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C149" s="28"/>
-      <c r="D149" s="28"/>
-      <c r="E149" s="28"/>
-      <c r="F149" s="28"/>
-      <c r="G149" s="28"/>
-      <c r="H149" s="28"/>
-      <c r="I149" s="28"/>
-      <c r="J149" s="29"/>
+      <c r="C149" s="29"/>
+      <c r="D149" s="29"/>
+      <c r="E149" s="29"/>
+      <c r="F149" s="29"/>
+      <c r="G149" s="29"/>
+      <c r="H149" s="29"/>
+      <c r="I149" s="29"/>
+      <c r="J149" s="30"/>
     </row>
     <row r="150" spans="2:10">
-      <c r="B150" s="21" t="s">
+      <c r="B150" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="C150" s="22"/>
-      <c r="D150" s="22"/>
-      <c r="E150" s="22"/>
-      <c r="F150" s="22"/>
-      <c r="G150" s="22"/>
-      <c r="H150" s="22"/>
-      <c r="I150" s="22"/>
-      <c r="J150" s="23"/>
+      <c r="C150" s="32"/>
+      <c r="D150" s="32"/>
+      <c r="E150" s="32"/>
+      <c r="F150" s="32"/>
+      <c r="G150" s="32"/>
+      <c r="H150" s="32"/>
+      <c r="I150" s="32"/>
+      <c r="J150" s="33"/>
     </row>
     <row r="151" spans="2:10" ht="18" thickBot="1">
-      <c r="B151" s="24"/>
-      <c r="C151" s="25"/>
-      <c r="D151" s="25"/>
-      <c r="E151" s="25"/>
-      <c r="F151" s="25"/>
-      <c r="G151" s="25"/>
-      <c r="H151" s="25"/>
-      <c r="I151" s="25"/>
-      <c r="J151" s="26"/>
+      <c r="B151" s="34"/>
+      <c r="C151" s="35"/>
+      <c r="D151" s="35"/>
+      <c r="E151" s="35"/>
+      <c r="F151" s="35"/>
+      <c r="G151" s="35"/>
+      <c r="H151" s="35"/>
+      <c r="I151" s="35"/>
+      <c r="J151" s="36"/>
     </row>
     <row r="153" spans="2:10">
       <c r="B153" s="3" t="s">
@@ -4242,6 +4250,22 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A3:XFD3"/>
+    <mergeCell ref="B67:J67"/>
+    <mergeCell ref="B68:J69"/>
+    <mergeCell ref="B89:J89"/>
+    <mergeCell ref="A77:XFD77"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="B26:J27"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B6:J7"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="B16:J17"/>
+    <mergeCell ref="B37:J38"/>
+    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="B46:J47"/>
     <mergeCell ref="B54:J54"/>
     <mergeCell ref="B55:J56"/>
     <mergeCell ref="B149:J149"/>
@@ -4254,23 +4278,7 @@
     <mergeCell ref="B110:J111"/>
     <mergeCell ref="B136:J136"/>
     <mergeCell ref="B137:J138"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A3:XFD3"/>
-    <mergeCell ref="B67:J67"/>
-    <mergeCell ref="B68:J69"/>
-    <mergeCell ref="B89:J89"/>
     <mergeCell ref="B90:J91"/>
-    <mergeCell ref="A77:XFD77"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="B26:J27"/>
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="B6:J7"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="B16:J17"/>
-    <mergeCell ref="B37:J38"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="B46:J47"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4282,8 +4290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -4295,8 +4303,8 @@
     <col min="6" max="6" width="8.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="30" customFormat="1" ht="27.6">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:10" s="37" customFormat="1" ht="27.6">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4307,48 +4315,48 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:10" s="31" customFormat="1" ht="18" thickBot="1">
-      <c r="A3" s="31" t="s">
+    <row r="3" spans="1:10" s="38" customFormat="1" ht="18" thickBot="1">
+      <c r="A3" s="38" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="18" thickBot="1"/>
     <row r="5" spans="1:10">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="30"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="23"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="33"/>
     </row>
     <row r="7" spans="1:10" ht="18" thickBot="1">
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="26"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="36"/>
     </row>
     <row r="8" spans="1:10">
       <c r="C8" s="2"/>
@@ -4381,7 +4389,7 @@
       <c r="B10" s="10">
         <v>1</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="21">
         <v>44039</v>
       </c>
       <c r="D10" s="15" t="s">
@@ -4401,7 +4409,7 @@
       <c r="B11" s="10">
         <v>2</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="21">
         <v>44040</v>
       </c>
       <c r="D11" s="15" t="s">
@@ -4421,7 +4429,7 @@
       <c r="B12" s="10">
         <v>3</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="21">
         <v>44041</v>
       </c>
       <c r="D12" s="15" t="s">
@@ -4441,7 +4449,7 @@
       <c r="B13" s="10">
         <v>4</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="21">
         <v>44042</v>
       </c>
       <c r="D13" s="15" t="s">
@@ -4461,7 +4469,7 @@
       <c r="B14" s="10">
         <v>5</v>
       </c>
-      <c r="C14" s="32">
+      <c r="C14" s="21">
         <v>44043</v>
       </c>
       <c r="D14" s="15" t="s">
@@ -4481,7 +4489,7 @@
       <c r="B15" s="10">
         <v>6</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="21">
         <v>44046</v>
       </c>
       <c r="D15" s="15" t="s">
@@ -4501,7 +4509,7 @@
       <c r="B16" s="10">
         <v>7</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="21">
         <v>44047</v>
       </c>
       <c r="D16" s="15" t="s">
@@ -4521,7 +4529,7 @@
       <c r="B17" s="10">
         <v>8</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="21">
         <v>44048</v>
       </c>
       <c r="D17" s="15" t="s">
@@ -4541,7 +4549,7 @@
       <c r="B18" s="10">
         <v>9</v>
       </c>
-      <c r="C18" s="32">
+      <c r="C18" s="21">
         <v>44049</v>
       </c>
       <c r="D18" s="15" t="s">
@@ -4561,7 +4569,7 @@
       <c r="B19" s="10">
         <v>10</v>
       </c>
-      <c r="C19" s="32">
+      <c r="C19" s="21">
         <v>44050</v>
       </c>
       <c r="D19" s="15" t="s">
@@ -4581,7 +4589,7 @@
       <c r="B20" s="10">
         <v>11</v>
       </c>
-      <c r="C20" s="32">
+      <c r="C20" s="21">
         <v>44052</v>
       </c>
       <c r="D20" s="15" t="s">
@@ -4601,7 +4609,7 @@
       <c r="B21" s="10">
         <v>12</v>
       </c>
-      <c r="C21" s="32">
+      <c r="C21" s="21">
         <v>44053</v>
       </c>
       <c r="D21" s="15" t="s">
@@ -4621,7 +4629,7 @@
       <c r="B22" s="10">
         <v>13</v>
       </c>
-      <c r="C22" s="32">
+      <c r="C22" s="21">
         <v>44054</v>
       </c>
       <c r="D22" s="15" t="s">
@@ -4641,7 +4649,7 @@
       <c r="B23" s="10">
         <v>14</v>
       </c>
-      <c r="C23" s="32">
+      <c r="C23" s="21">
         <v>44055</v>
       </c>
       <c r="D23" s="15" t="s">
@@ -4661,7 +4669,7 @@
       <c r="B24" s="10">
         <v>15</v>
       </c>
-      <c r="C24" s="32">
+      <c r="C24" s="21">
         <v>44056</v>
       </c>
       <c r="D24" s="15" t="s">
@@ -4681,7 +4689,7 @@
       <c r="B25" s="10">
         <v>16</v>
       </c>
-      <c r="C25" s="32">
+      <c r="C25" s="21">
         <v>44057</v>
       </c>
       <c r="D25" s="15" t="s">
@@ -4701,7 +4709,7 @@
       <c r="B26" s="10">
         <v>17</v>
       </c>
-      <c r="C26" s="32">
+      <c r="C26" s="21">
         <v>44059</v>
       </c>
       <c r="D26" s="15" t="s">
@@ -4721,7 +4729,7 @@
       <c r="B27" s="10">
         <v>18</v>
       </c>
-      <c r="C27" s="32">
+      <c r="C27" s="21">
         <v>44060</v>
       </c>
       <c r="D27" s="15" t="s">
@@ -4741,7 +4749,7 @@
       <c r="B28" s="10">
         <v>19</v>
       </c>
-      <c r="C28" s="32">
+      <c r="C28" s="21">
         <v>44061</v>
       </c>
       <c r="D28" s="15" t="s">
@@ -4761,7 +4769,7 @@
       <c r="B29" s="10">
         <v>20</v>
       </c>
-      <c r="C29" s="32">
+      <c r="C29" s="21">
         <v>44062</v>
       </c>
       <c r="D29" s="15" t="s">
@@ -4781,11 +4789,15 @@
       <c r="B30" s="10">
         <v>21</v>
       </c>
-      <c r="C30" s="32">
+      <c r="C30" s="21">
         <v>44063</v>
       </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
+      <c r="D30" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>298</v>
+      </c>
       <c r="F30" s="13" t="s">
         <v>3</v>
       </c>
